--- a/data_year/zb/综合/民族自治地方/民族自治地方建筑业.xlsx
+++ b/data_year/zb/综合/民族自治地方/民族自治地方建筑业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,190 +458,76 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.5884</v>
+        <v>194.2371</v>
       </c>
       <c r="C2" t="n">
-        <v>754.303528</v>
+        <v>5202.988768</v>
       </c>
       <c r="D2" t="n">
-        <v>9231.85</v>
+        <v>35052.1759</v>
       </c>
       <c r="E2" t="n">
-        <v>5325.88</v>
+        <v>15418.4797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.7</v>
+        <v>190.1403</v>
       </c>
       <c r="C3" t="n">
-        <v>1655.9</v>
+        <v>6391.75764257</v>
       </c>
       <c r="D3" t="n">
-        <v>15964.4</v>
+        <v>42752.8193</v>
       </c>
       <c r="E3" t="n">
-        <v>8072.1</v>
+        <v>17483.1218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.9</v>
+        <v>195.9589</v>
       </c>
       <c r="C4" t="n">
-        <v>1927.9</v>
+        <v>6823.220903</v>
       </c>
       <c r="D4" t="n">
-        <v>18543.6</v>
+        <v>49143.9746</v>
       </c>
       <c r="E4" t="n">
-        <v>9183.200000000001</v>
+        <v>19199.4186</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>162.2774</v>
+        <v>218.2667</v>
       </c>
       <c r="C5" t="n">
-        <v>2500.48848</v>
+        <v>8021.32877</v>
       </c>
       <c r="D5" t="n">
-        <v>22717.247</v>
+        <v>59672.6201</v>
       </c>
       <c r="E5" t="n">
-        <v>11234.5947</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>165.2803</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3082.893006</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24600.0436</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11857.8808</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>183.97125</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3961.73416059</v>
-      </c>
-      <c r="D7" t="n">
-        <v>28156.4689</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13166.9995</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>194.2371</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5202.988768</v>
-      </c>
-      <c r="D8" t="n">
-        <v>35052.1759</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15418.4797</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>190.1403</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6391.75764257</v>
-      </c>
-      <c r="D9" t="n">
-        <v>42752.8193</v>
-      </c>
-      <c r="E9" t="n">
-        <v>17483.1218</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>195.9589</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6823.220903</v>
-      </c>
-      <c r="D10" t="n">
-        <v>49143.9746</v>
-      </c>
-      <c r="E10" t="n">
-        <v>19199.4186</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>218.2667</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8021.32877</v>
-      </c>
-      <c r="D11" t="n">
-        <v>59672.6201</v>
-      </c>
-      <c r="E11" t="n">
         <v>12359.6379</v>
       </c>
     </row>
